--- a/docs/notes/color_sequences.xlsx
+++ b/docs/notes/color_sequences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\project\qc16\docs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E77372-017C-4CAF-9AE9-907163807D2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716C130-BD71-418C-950F-64E34E828C30}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7305" yWindow="2010" windowWidth="21600" windowHeight="11505" xr2:uid="{C89B7ABC-4ABE-4887-9928-FBD4752D7382}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>0, 63, 28</t>
   </si>
   <si>
-    <t>24, 48</t>
+    <t>40, 8, 16</t>
   </si>
   <si>
-    <t>40, 8, 16</t>
+    <t>0, 24, 48</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
